--- a/va_facility_data_2025-02-20/James E. Van Zandt Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''James%20E.%20Van%20Zandt%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/James E. Van Zandt Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''James%20E.%20Van%20Zandt%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R189dbd5dd3f84dde86e5af4033ad074a"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R480c63bdc979447da51e55e48808dd5f"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6e55a18648ee4a66bf56fd52c6b1e1e6"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R4acea6b404fd49f49c8580cae9aff85c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R925cd916d19f4504aee0e4b4ec439ba3"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4fec5032a1074bcb9c69a2127aab18be"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd86bf4f7b4334cdda6ebd2fe6a371eab"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R98aa4a834f614eb2ae31d6d702f5dcd4"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R45140fac495b45d689b4b03c39abac7b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R91a0f6d6e89e452988655b36b2e56a3c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R7c758beca4684a0da62f7b13891ec2c5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb2be500efe394c55a3f33d707298cdeb"/>
   </x:sheets>
 </x:workbook>
 </file>
